--- a/Calculos_Combinatorios.xlsx
+++ b/Calculos_Combinatorios.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,11 +396,17 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -408,7 +414,7 @@
       </c>
       <c r="B4">
         <f>FACT(B2)/FACT(B2-B3)</f>
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -444,6 +450,9 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -451,11 +460,11 @@
       </c>
       <c r="B11">
         <f>FACT(B10)</f>
-        <v>1</v>
+        <v>3628800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -463,11 +472,17 @@
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
@@ -475,7 +490,7 @@
       </c>
       <c r="B16">
         <f>FACT(B14)/(FACT(B15)*FACT(B14-B15))</f>
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
